--- a/biology/Zoologie/Amazone_à_couronne_lilas/Amazone_à_couronne_lilas.xlsx
+++ b/biology/Zoologie/Amazone_à_couronne_lilas/Amazone_à_couronne_lilas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amazone_%C3%A0_couronne_lilas</t>
+          <t>Amazone_à_couronne_lilas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amazona finschi
 L'Amazone à couronne lilas (Amazona finschi) est une espèce d'oiseau appartenant à la famille des Psittacidae endémique du Mexique.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amazone_%C3%A0_couronne_lilas</t>
+          <t>Amazone_à_couronne_lilas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau ressemble beaucoup à l'Amazone à joues vertes avec son plumage essentiellement vert et les ailes marquées de rouge. Il s'en distingue notamment par le front rouge sombre et la calotte et la nuque lilas.
-Cette amazone mesure 32 cm pour une envergure d'environ 61 cm et une masse de 300 g[1].
+Cette amazone mesure 32 cm pour une envergure d'environ 61 cm et une masse de 300 g.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amazone_%C3%A0_couronne_lilas</t>
+          <t>Amazone_à_couronne_lilas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du la côte Pacifique au Mexique. Elle vit dans les forêts décidues, semi-décidues ainsi que dans les forêts mixtes de pins et chênes, jusqu'à 2 000 m d'altitude[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du la côte Pacifique au Mexique. Elle vit dans les forêts décidues, semi-décidues ainsi que dans les forêts mixtes de pins et chênes, jusqu'à 2 000 m d'altitude.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Amazone_%C3%A0_couronne_lilas</t>
+          <t>Amazone_à_couronne_lilas</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est principalement menacée par le braconnage, on estime qu'environ 5 400 individus sont capturés par an pour être domestiqués. Elle est également menacée par la degradation de son habitat, transformé en terres agricoles et terres de pâturages[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est principalement menacée par le braconnage, on estime qu'environ 5 400 individus sont capturés par an pour être domestiqués. Elle est également menacée par la degradation de son habitat, transformé en terres agricoles et terres de pâturages.
 </t>
         </is>
       </c>
